--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554620.9229971551</v>
+        <v>551410.5522459052</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>11851279.6968265</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901943</v>
+        <v>2519657.038588232</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6959004.264004102</v>
+        <v>7868003.725048845</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>91.48220985567885</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>134.3673702744726</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -820,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>138.2463772119836</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -899,16 +901,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>77.44151157098879</v>
+        <v>87.12299254042236</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1117,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.61444029309493</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.14606922244431</v>
+        <v>120.4128486741869</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1139,13 +1141,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1376,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>252.4633837309809</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>326.959626318485</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>58.67748875058447</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.31517967031814</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1855,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>71.94762989914915</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>14.5415337866577</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>114.0908538936406</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474295</v>
+        <v>188.2159348891107</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,16 +2247,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2302,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100367</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>215.6434580222341</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3667,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>104.9037564455521</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>38.9052811463091</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3791,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>77.34040729634128</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>167.225823014918</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>60.15466974967097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>124.229055783122</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>875.7380174464988</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="C2" t="n">
-        <v>448.8372874597989</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D2" t="n">
-        <v>448.8372874597989</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E2" t="n">
-        <v>448.8372874597989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924752</v>
@@ -4331,25 +4333,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="M2" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N2" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2132.504979880882</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2132.504979880882</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.186636023514</v>
+        <v>2132.504979880882</v>
       </c>
       <c r="W2" t="n">
-        <v>1692.795286323861</v>
+        <v>2132.504979880882</v>
       </c>
       <c r="X2" t="n">
-        <v>1281.075287491608</v>
+        <v>1720.78498104863</v>
       </c>
       <c r="Y2" t="n">
-        <v>875.7380174464988</v>
+        <v>1315.44771100352</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4391,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
         <v>44.49822504924752</v>
@@ -4410,22 +4412,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.292594627669</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>454.3200315065851</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>454.3200315065851</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
         <v>454.3200315065851</v>
@@ -4492,7 +4494,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4516,22 +4518,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688275</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U4" t="n">
-        <v>1841.929099423646</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.217632031674</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>1285.365228204187</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1042.801331649993</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.4585633397346</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1726.839139109241</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.938409122541</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D5" t="n">
-        <v>1299.938409122541</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924752</v>
@@ -4568,19 +4570,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M5" t="n">
-        <v>957.767218850581</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819457</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P5" t="n">
         <v>2107.354917580473</v>
@@ -4604,13 +4606,13 @@
         <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>2146.687503400771</v>
+        <v>1740.51687999462</v>
       </c>
       <c r="Y5" t="n">
-        <v>2146.687503400771</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="6">
@@ -4626,16 +4628,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
         <v>44.49822504924752</v>
@@ -4644,25 +4646,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132766</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>1389.040378766978</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1944.72680396268</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1663.015336570709</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1388.162932743222</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1388.162932743222</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1724.154820072098</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C8" t="n">
-        <v>1297.254090085399</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>873.9614692703988</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924752</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462376</v>
@@ -4838,16 +4840,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630123</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="Y8" t="n">
-        <v>1813.191253630123</v>
+        <v>1867.421837588626</v>
       </c>
     </row>
     <row r="9">
@@ -4863,16 +4865,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
         <v>44.49822504924752</v>
@@ -4884,22 +4886,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924752</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="M9" t="n">
-        <v>44.49822504924752</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336854</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002561</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1447.573473297095</v>
+        <v>2125.556535424035</v>
       </c>
       <c r="C11" t="n">
-        <v>1020.672743310395</v>
+        <v>1698.655805437335</v>
       </c>
       <c r="D11" t="n">
-        <v>597.3801224953954</v>
+        <v>1275.363184622336</v>
       </c>
       <c r="E11" t="n">
-        <v>342.3666035752127</v>
+        <v>849.3862447701932</v>
       </c>
       <c r="F11" t="n">
-        <v>342.3666035752127</v>
+        <v>424.2620629595934</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3666035752127</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>809.508122128542</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336854</v>
+        <v>1739.133169747819</v>
       </c>
       <c r="M11" t="n">
-        <v>1123.5801824935</v>
+        <v>2743.419271166877</v>
       </c>
       <c r="N11" t="n">
-        <v>1674.245717477938</v>
+        <v>3719.670329653577</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462376</v>
+        <v>4564.81497980439</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652146</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652146</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652146</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>4595.623413525286</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>4374.697842569919</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>4116.342933166331</v>
       </c>
       <c r="V11" t="n">
-        <v>1867.421837588625</v>
+        <v>3758.853518292581</v>
       </c>
       <c r="W11" t="n">
-        <v>1867.421837588625</v>
+        <v>3362.462168592928</v>
       </c>
       <c r="X11" t="n">
-        <v>1867.421837588625</v>
+        <v>2950.742169760675</v>
       </c>
       <c r="Y11" t="n">
-        <v>1867.421837588625</v>
+        <v>2545.404899715566</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.6217160807028</v>
+        <v>661.1233051844981</v>
       </c>
       <c r="C12" t="n">
-        <v>494.1158125982075</v>
+        <v>543.6174017020029</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>439.777443217288</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>335.0755094902252</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>241.4296791731293</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>147.3759073907333</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="L12" t="n">
-        <v>287.709308798102</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="M12" t="n">
-        <v>287.709308798102</v>
+        <v>1149.986352129088</v>
       </c>
       <c r="N12" t="n">
-        <v>838.37484378254</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="O12" t="n">
-        <v>838.37484378254</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="R12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="S12" t="n">
-        <v>1771.861608191012</v>
+        <v>1821.363197294807</v>
       </c>
       <c r="T12" t="n">
-        <v>1629.98167248869</v>
+        <v>1679.483261592485</v>
       </c>
       <c r="U12" t="n">
-        <v>1445.213476408327</v>
+        <v>1494.715065512122</v>
       </c>
       <c r="V12" t="n">
-        <v>1240.240337547593</v>
+        <v>1289.741926651388</v>
       </c>
       <c r="W12" t="n">
-        <v>1043.71896038081</v>
+        <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>880.2416141474731</v>
+        <v>929.7432032512685</v>
       </c>
       <c r="Y12" t="n">
-        <v>740.5487255007655</v>
+        <v>790.0503146045609</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>1177.18093667728</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>1005.208373556196</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>841.8916006829664</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>675.68339483582</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>503.8216206103804</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>337.5646509046126</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>193.768382412767</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>151.4911423772009</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>378.0187435830381</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>732.7080648774589</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743914</v>
+        <v>1123.89385984771</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.88378161995</v>
+        <v>1501.385370723746</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299713</v>
+        <v>1856.813499403509</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221614</v>
+        <v>2147.412711325409</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.872639149549</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.872639149549</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="U13" t="n">
-        <v>2177.872639149549</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>2111.105974081285</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1836.253570253798</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>1593.689673699603</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>1367.346905389345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1745.792697513689</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.891967526989</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336854</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N14" t="n">
-        <v>1696.494830002561</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462376</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462376</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.64106180522</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2165.64106180522</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924752</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="M15" t="n">
-        <v>44.49822504924752</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="N15" t="n">
-        <v>595.1637600336854</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.829295018124</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.494830002561</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>626.1818057320246</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>626.1818057320246</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>626.1818057320246</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.1818057320246</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1393.342889338594</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>966.4421593518939</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>543.1495385368942</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>117.1725986847517</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002562</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462377</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.191253630124</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.191253630124</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336857</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>595.1637600336857</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O18" t="n">
-        <v>1145.829295018124</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1696.494830002562</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>976.1595596926588</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>804.1869965715748</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D19" t="n">
-        <v>640.8702236983455</v>
+        <v>389.4077743925212</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>389.4077743925212</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>217.5460001670816</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>217.5460001670816</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.502328002917</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.502328002917</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.502328002917</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.1595596926588</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3270.011978872612</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C22" t="n">
-        <v>3098.039415751528</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>1275.832373618938</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6066,16 +6068,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>4025.820723818557</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C28" t="n">
-        <v>201.4478291472353</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D28" t="n">
-        <v>201.4478291472353</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E28" t="n">
-        <v>201.4478291472353</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6540,28 +6542,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>712.1625887178441</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1371.235222294363</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1371.235222294363</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>1128.671325740168</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>902.3285574299098</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6707,28 +6709,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259876</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775161</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048099</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731003</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948607</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>4733.731774362162</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>4733.731774362162</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>4733.731774362162</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.81142285268</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150358</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069995</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209262</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042479</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809142</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162434</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6892,16 +6894,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7025,16 @@
         <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281452</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>3845.931202281452</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>3845.931202281452</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281452</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7254,19 +7256,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D40" t="n">
-        <v>208.2661037548711</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>285.3972456818248</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="41">
@@ -7409,34 +7411,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L41" t="n">
-        <v>1852.677416841655</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M41" t="n">
-        <v>2856.963518260713</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N41" t="n">
-        <v>3833.214576747414</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
@@ -7485,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2224.911252462377</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2055.996279720035</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1632.703658905035</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1206.726719052893</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>781.6025372422929</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>407.101683866143</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>407.101683866143</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>957.7672188505812</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>1218.160237973755</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>1768.825772958194</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958194</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2224.911252462377</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2224.911252462377</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>323.6423572907505</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>874.3078922751886</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L45" t="n">
-        <v>1424.973427259627</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M45" t="n">
-        <v>1771.166545545054</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.166545545054</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>268.5772905989122</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>207.8149979224768</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>44.49822504924753</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>44.49822504924753</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924753</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924753</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734062</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792433</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736641</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.883781619951</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299714</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221615</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.87263914955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668685</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894585</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394889</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1202.502328002918</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>927.6499241754307</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>685.0860276212358</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>458.7432593109778</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>548.8576414812761</v>
       </c>
       <c r="M2" t="n">
-        <v>110.4928214404734</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -8000,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298235</v>
+        <v>180.7888499740232</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8216,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8292,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>550.5504466271778</v>
+        <v>181.3705437721216</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>571.1852249800522</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418183</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>268.0669951958124</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.0208015487723</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,22 +8692,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>571.1852249800522</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>174.1165010503891</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>268.1828480767089</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,25 +8932,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>571.1449214366444</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>728.3675687028212</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>25.72212415780719</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204226</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.0208015487723</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>571.1449214366446</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9249,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9486,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9638,7 +9640,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>362.1014486857551</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,19 +9716,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>508.3773122949099</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885287</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>604.3877546542399</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10188,19 +10190,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>425.7272987035383</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>423.2283679410461</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>408.4283502568313</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>153.2864345924293</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>480.8452212937373</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,10 +11062,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>717.3655137896245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11072,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>224.653322316645</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>444.2732579605956</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>300.3028744740158</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489275</v>
+        <v>105.6391777587192</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>372.7867989824566</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22598,16 +22600,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>127.2341053901343</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>219.5471504505404</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22756,13 +22758,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>139.1362268027151</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22787,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22844,10 +22846,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1612872729414</v>
+        <v>320.4798063035079</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.4649003340604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.5038114261704</v>
+        <v>295.2370319744279</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23078,13 +23080,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>169.2537867226401</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>73.33604546796084</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -23473,7 +23475,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>348.9253100933457</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.7641609568372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>348.9253100933446</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.0045900020173</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>28.26745191328656</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.098167740202</v>
+        <v>0.04837413583433658</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24412,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>63.25089469581727</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>59.64236734312286</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>131.2378753368761</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25600,7 +25602,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25840,10 +25842,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>200.0421967183575</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>255.4058996719149</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0981677402022</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26035,10 +26037,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>40.3653442255882</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457564.9707319923</v>
+        <v>715708.0678114173</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457564.9707319923</v>
+        <v>759006.3975551017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457564.9707319924</v>
+        <v>759006.3975551017</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759006.3975551018</v>
+        <v>759006.3975551017</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759006.3975551017</v>
+        <v>759006.3975551015</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457564.9707319925</v>
+        <v>759006.3975551017</v>
       </c>
     </row>
   </sheetData>
@@ -26320,31 +26322,31 @@
         <v>144000.362781502</v>
       </c>
       <c r="E2" t="n">
-        <v>144000.362781502</v>
+        <v>225237.0889990936</v>
       </c>
       <c r="F2" t="n">
-        <v>144000.362781502</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="G2" t="n">
-        <v>144000.3627815021</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="H2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="I2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="J2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="K2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="L2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="M2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="N2" t="n">
         <v>238862.9213334151</v>
@@ -26353,7 +26355,7 @@
         <v>238862.9213334152</v>
       </c>
       <c r="P2" t="n">
-        <v>144000.362781502</v>
+        <v>238862.9213334152</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>184751.0683929128</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>29737.45639129563</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>154199.9251377779</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25420.05256608777</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9081.116486988822</v>
+      </c>
+      <c r="C4" t="n">
         <v>9081.11648698882</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9081.116486988822</v>
       </c>
       <c r="D4" t="n">
         <v>9081.11648698882</v>
       </c>
       <c r="E4" t="n">
-        <v>9081.11648698882</v>
+        <v>14249.31239680877</v>
       </c>
       <c r="F4" t="n">
-        <v>9081.11648698882</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
-        <v>9081.116486988822</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
@@ -26457,7 +26459,7 @@
         <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
-        <v>9081.116486988823</v>
+        <v>15116.17365792743</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>71439.85875631262</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-118931.7381576521</v>
       </c>
       <c r="C6" t="n">
-        <v>67472.99525708507</v>
+        <v>67472.99525708506</v>
       </c>
       <c r="D6" t="n">
-        <v>67472.9952570851</v>
+        <v>67472.99525708506</v>
       </c>
       <c r="E6" t="n">
-        <v>101100.5952570851</v>
+        <v>-45203.15054694057</v>
       </c>
       <c r="F6" t="n">
-        <v>101100.595257085</v>
+        <v>116259.2290957624</v>
       </c>
       <c r="G6" t="n">
-        <v>101100.5952570851</v>
+        <v>145996.685487058</v>
       </c>
       <c r="H6" t="n">
-        <v>-48955.45450045158</v>
+        <v>145996.685487058</v>
       </c>
       <c r="I6" t="n">
-        <v>145996.6854870581</v>
+        <v>145996.685487058</v>
       </c>
       <c r="J6" t="n">
-        <v>463.0155522415153</v>
+        <v>463.0155522415007</v>
       </c>
       <c r="K6" t="n">
-        <v>145996.6854870581</v>
+        <v>145996.685487058</v>
       </c>
       <c r="L6" t="n">
-        <v>145996.6854870581</v>
+        <v>145996.685487058</v>
       </c>
       <c r="M6" t="n">
-        <v>145996.6854870581</v>
+        <v>-8203.239650719945</v>
       </c>
       <c r="N6" t="n">
-        <v>145996.685487058</v>
+        <v>120576.6329209702</v>
       </c>
       <c r="O6" t="n">
         <v>145996.6854870581</v>
       </c>
       <c r="P6" t="n">
-        <v>101100.5952570851</v>
+        <v>145996.6854870581</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>1174.997676913036</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26817,7 +26819,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="M4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>618.7698637974424</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>103.7862406598202</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974427</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598202</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974424</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598202</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>510.5455990486532</v>
       </c>
       <c r="M2" t="n">
-        <v>73.06155854104156</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155939</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155939</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>527.4536661148499</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>144.279479031587</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.2737632597938</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>533.7539620806205</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>136.5411392401578</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>245.6677613624793</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>533.7539620806203</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>690.79220689259</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3.207037443577633</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155939</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>533.7539620806206</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155941</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36358,7 +36360,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>324.5260868755238</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>485.8622255806804</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540826</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>566.9967952982157</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416143</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>385.2564605346091</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>443.269859483506</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>679.0534713570016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37792,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>188.528647712047</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>263.0232516395698</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155941</v>
+        <v>83.23994392538584</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>551410.5522459052</v>
+        <v>548983.9597616224</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11851279.6968265</v>
+        <v>11851279.69682649</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2519657.038588232</v>
+        <v>2519657.038588237</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7868003.725048845</v>
+        <v>7868003.725048844</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>91.48220985567885</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.8412672814901</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>96.4442051068646</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>87.12299254042236</v>
+        <v>315.7976763395181</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120.4128486741869</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.9095302899767</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>326.959626318485</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>390.9376907946723</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>68.38585200927781</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>41.22670158250762</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -2004,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>114.0908538936406</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.2159348891107</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>215.6434580222341</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>147.749680866647</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>38.9052811463091</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>124.229055783122</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>895.5993467119897</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="C2" t="n">
-        <v>895.5993467119897</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="D2" t="n">
-        <v>895.5993467119897</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="E2" t="n">
-        <v>469.6224068598473</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074142</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2132.504979880882</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2132.504979880882</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2132.504979880882</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>2132.504979880882</v>
+        <v>1179.210784218065</v>
       </c>
       <c r="X2" t="n">
-        <v>1720.78498104863</v>
+        <v>767.4907853858125</v>
       </c>
       <c r="Y2" t="n">
-        <v>1315.44771100352</v>
+        <v>767.4907853858125</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336855</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608812</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N3" t="n">
-        <v>1853.185855629757</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>141.9166140460805</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.668515703089</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C5" t="n">
-        <v>893.7677857163897</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D5" t="n">
-        <v>470.47516490139</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505811</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596035</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>1740.51687999462</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y5" t="n">
-        <v>1740.51687999462</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>201.1892506764432</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608812</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.792697513689</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.891967526989</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D8" t="n">
-        <v>895.5993467119897</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="E8" t="n">
-        <v>469.6224068598473</v>
+        <v>1046.740717541308</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>621.6165357307079</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
@@ -4813,43 +4813,43 @@
         <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="9">
@@ -4871,28 +4871,28 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>287.7093087981018</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L9" t="n">
-        <v>287.7093087981018</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>838.3748437825399</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N9" t="n">
         <v>1389.040378766978</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2125.556535424035</v>
+        <v>2532.39859881053</v>
       </c>
       <c r="C11" t="n">
-        <v>1698.655805437335</v>
+        <v>2105.49786882383</v>
       </c>
       <c r="D11" t="n">
-        <v>1275.363184622336</v>
+        <v>1682.20524800883</v>
       </c>
       <c r="E11" t="n">
-        <v>849.3862447701932</v>
+        <v>1256.228308156688</v>
       </c>
       <c r="F11" t="n">
-        <v>424.2620629595934</v>
+        <v>831.104126346088</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99981415304292</v>
+        <v>426.7650639355367</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99981415304292</v>
+        <v>128.8966854095715</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99981415304292</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J11" t="n">
-        <v>93.99981415304292</v>
+        <v>456.6032729699382</v>
       </c>
       <c r="K11" t="n">
-        <v>809.508122128542</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="L11" t="n">
-        <v>1739.133169747819</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="M11" t="n">
-        <v>2743.419271166877</v>
+        <v>1596.673905470607</v>
       </c>
       <c r="N11" t="n">
-        <v>3719.670329653577</v>
+        <v>2572.924963957308</v>
       </c>
       <c r="O11" t="n">
-        <v>4564.81497980439</v>
+        <v>3418.06961410812</v>
       </c>
       <c r="P11" t="n">
-        <v>4699.990707652146</v>
+        <v>4126.348893266048</v>
       </c>
       <c r="Q11" t="n">
-        <v>4699.990707652146</v>
+        <v>4582.434372770231</v>
       </c>
       <c r="R11" t="n">
-        <v>4699.990707652146</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="S11" t="n">
-        <v>4595.623413525286</v>
+        <v>4595.623413525273</v>
       </c>
       <c r="T11" t="n">
-        <v>4374.697842569919</v>
+        <v>4374.697842569906</v>
       </c>
       <c r="U11" t="n">
-        <v>4116.342933166331</v>
+        <v>4116.342933166318</v>
       </c>
       <c r="V11" t="n">
-        <v>3758.853518292581</v>
+        <v>3758.853518292568</v>
       </c>
       <c r="W11" t="n">
-        <v>3362.462168592928</v>
+        <v>3758.853518292568</v>
       </c>
       <c r="X11" t="n">
-        <v>2950.742169760675</v>
+        <v>3347.133519460315</v>
       </c>
       <c r="Y11" t="n">
-        <v>2545.404899715566</v>
+        <v>2952.24696310206</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>661.1233051844981</v>
+        <v>661.1233051844979</v>
       </c>
       <c r="C12" t="n">
-        <v>543.6174017020029</v>
+        <v>543.6174017020027</v>
       </c>
       <c r="D12" t="n">
-        <v>439.777443217288</v>
+        <v>439.7774432172877</v>
       </c>
       <c r="E12" t="n">
-        <v>335.0755094902252</v>
+        <v>335.0755094902249</v>
       </c>
       <c r="F12" t="n">
-        <v>241.4296791731293</v>
+        <v>241.429679173129</v>
       </c>
       <c r="G12" t="n">
-        <v>147.3759073907333</v>
+        <v>147.3759073907331</v>
       </c>
       <c r="H12" t="n">
-        <v>93.99981415304292</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I12" t="n">
-        <v>93.99981415304292</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J12" t="n">
-        <v>93.99981415304292</v>
+        <v>365.6973034326338</v>
       </c>
       <c r="K12" t="n">
-        <v>93.99981415304292</v>
+        <v>365.6973034326338</v>
       </c>
       <c r="L12" t="n">
-        <v>93.99981415304292</v>
+        <v>365.6973034326338</v>
       </c>
       <c r="M12" t="n">
-        <v>1149.986352129088</v>
+        <v>813.3724982606825</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="P12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="Q12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="R12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="S12" t="n">
         <v>1821.363197294807</v>
@@ -5162,10 +5162,10 @@
         <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>929.7432032512685</v>
+        <v>929.7432032512683</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.0503146045609</v>
+        <v>790.0503146045606</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1177.18093667728</v>
+        <v>747.8873896971797</v>
       </c>
       <c r="C13" t="n">
-        <v>1005.208373556196</v>
+        <v>575.9148265760957</v>
       </c>
       <c r="D13" t="n">
-        <v>841.8916006829664</v>
+        <v>575.9148265760957</v>
       </c>
       <c r="E13" t="n">
-        <v>675.68339483582</v>
+        <v>575.9148265760957</v>
       </c>
       <c r="F13" t="n">
-        <v>503.8216206103804</v>
+        <v>404.0530523506561</v>
       </c>
       <c r="G13" t="n">
-        <v>337.5646509046126</v>
+        <v>237.7960826448883</v>
       </c>
       <c r="H13" t="n">
-        <v>193.768382412767</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99981415304292</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J13" t="n">
-        <v>151.4911423772009</v>
+        <v>151.4911423772007</v>
       </c>
       <c r="K13" t="n">
-        <v>378.0187435830381</v>
+        <v>378.0187435830379</v>
       </c>
       <c r="L13" t="n">
-        <v>732.7080648774589</v>
+        <v>732.7080648774586</v>
       </c>
       <c r="M13" t="n">
-        <v>1123.89385984771</v>
+        <v>1123.893859847709</v>
       </c>
       <c r="N13" t="n">
-        <v>1501.385370723746</v>
+        <v>1501.385370723745</v>
       </c>
       <c r="O13" t="n">
-        <v>1856.813499403509</v>
+        <v>1856.813499403508</v>
       </c>
       <c r="P13" t="n">
         <v>2147.412711325409</v>
@@ -5229,22 +5229,22 @@
         <v>2274.412841566171</v>
       </c>
       <c r="T13" t="n">
-        <v>2274.412841566171</v>
+        <v>2031.073493792071</v>
       </c>
       <c r="U13" t="n">
-        <v>2274.412841566171</v>
+        <v>1750.889045292375</v>
       </c>
       <c r="V13" t="n">
-        <v>2111.105974081285</v>
+        <v>1681.812427101185</v>
       </c>
       <c r="W13" t="n">
-        <v>1836.253570253798</v>
+        <v>1406.960023273698</v>
       </c>
       <c r="X13" t="n">
-        <v>1593.689673699603</v>
+        <v>1164.396126719503</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.346905389345</v>
+        <v>938.0533584092454</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3857.609571081677</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>105.4776804749704</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>105.4776804749704</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1901.578860486156</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808981</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357521</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886056</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>512.124519863166</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1844.556469506584</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X16" t="n">
-        <v>1601.992572952389</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>552.7245472657505</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>389.4077743925212</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>389.4077743925212</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>217.5460001670816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>217.5460001670816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.832373618938</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1275.832373618938</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.832373618938</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2398.817321261059</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4220.213029898572</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>971.931772215671</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>971.931772215671</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N27" t="n">
-        <v>971.931772215671</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>5115.135670291426</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4951.828802806541</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4434.412502424859</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.8188681099</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>964.4851292537592</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>964.4851292537592</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
         <v>1364.825557038856</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>712.1625887178441</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.235222294363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1371.235222294363</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1128.671325740168</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>902.3285574299098</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991802</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478503</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629315</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710917</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710917</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>4733.731774362162</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>4733.731774362162</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>4733.731774362162</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291425</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291425</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291425</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,28 +6946,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>786.8947875232845</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C40" t="n">
-        <v>614.9222244022005</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D40" t="n">
-        <v>451.6054515289712</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>285.3972456818248</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
         <v>246.0989818976742</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.81982492729</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W40" t="n">
-        <v>1445.967421099803</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.403524545608</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y40" t="n">
-        <v>977.0607562353503</v>
+        <v>1071.640596682614</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,49 +7399,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4928.4923090565</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7490,25 +7490,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>946.5481644506465</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N42" t="n">
-        <v>946.5481644506465</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O42" t="n">
-        <v>946.5481644506465</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q42" t="n">
         <v>1828.971033901635</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,7 +7648,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7660,40 +7660,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7102578919605</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>371.5828766281004</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>371.5828766281004</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L2" t="n">
-        <v>548.8576414812761</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8057,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>180.7888499740232</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>467.7777678727252</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500345</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3705437721216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8461,22 +8461,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>181.8548408418183</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>268.0669951958124</v>
+        <v>549.852899948183</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>466.2820957531384</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>174.1165010503891</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,10 +8777,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>475.2939470053065</v>
       </c>
       <c r="N12" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>728.3675687028212</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>25.72212415780719</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>33.17946838422736</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>200.0929141007635</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9640,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>362.1014486857551</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>508.3773122949099</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>632.4842746885287</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>675.3923850715689</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>501.4810380814832</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>952.685833629606</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10196,13 +10196,13 @@
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>423.2283679410461</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>408.4283502568313</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>59.58495761848395</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>480.8452212937373</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q41" t="n">
-        <v>224.653322316645</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>444.2732579605956</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11308,7 +11308,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>105.6391777587192</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22555,7 +22555,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22600,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>127.2341053901343</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>185.5861689211665</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.326677470262183</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,13 +22758,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22843,16 +22843,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>320.4798063035079</v>
+        <v>91.80512250441211</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22953,7 +22953,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283286</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>295.2370319744279</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>158.3861414964691</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23190,7 +23190,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -23199,7 +23199,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>73.33604546796084</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>10.34620654998622</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>210.5085007087736</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>129.0261359073655</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23907,7 +23907,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>28.26745191328656</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04837413583433658</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>63.25089469581727</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>40.51462815829797</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>131.2378753368761</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40.3653442255882</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457564.9707319924</v>
+        <v>457564.9707319926</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715708.0678114173</v>
+        <v>715708.0678114156</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759006.3975551015</v>
+        <v>759006.3975551017</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759006.3975551018</v>
+        <v>759006.3975551017</v>
       </c>
     </row>
     <row r="15">
@@ -26319,40 +26319,40 @@
         <v>144000.362781502</v>
       </c>
       <c r="D2" t="n">
-        <v>144000.362781502</v>
+        <v>144000.3627815021</v>
       </c>
       <c r="E2" t="n">
-        <v>225237.0889990936</v>
+        <v>225237.0889990933</v>
       </c>
       <c r="F2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="G2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="H2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="I2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="J2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="K2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="L2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="M2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="N2" t="n">
+        <v>238862.9213334152</v>
+      </c>
+      <c r="O2" t="n">
         <v>238862.9213334151</v>
-      </c>
-      <c r="O2" t="n">
-        <v>238862.9213334152</v>
       </c>
       <c r="P2" t="n">
         <v>238862.9213334152</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>184751.0683929128</v>
+        <v>184751.0683929118</v>
       </c>
       <c r="F3" t="n">
-        <v>29737.45639129563</v>
+        <v>29737.4563912966</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154199.9251377779</v>
+        <v>154199.925137777</v>
       </c>
       <c r="N3" t="n">
-        <v>25420.05256608777</v>
+        <v>25420.0525660886</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>9081.11648698882</v>
       </c>
       <c r="D4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="E4" t="n">
-        <v>14249.31239680877</v>
+        <v>14249.31239680875</v>
       </c>
       <c r="F4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
@@ -26450,16 +26450,16 @@
         <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="P4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>71439.85875631262</v>
+        <v>71439.85875631242</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118931.7381576521</v>
+        <v>-119540.7838701418</v>
       </c>
       <c r="C6" t="n">
-        <v>67472.99525708506</v>
+        <v>66863.94954459538</v>
       </c>
       <c r="D6" t="n">
-        <v>67472.99525708506</v>
+        <v>66863.94954459547</v>
       </c>
       <c r="E6" t="n">
-        <v>-45203.15054694057</v>
+        <v>-45334.33316403176</v>
       </c>
       <c r="F6" t="n">
-        <v>116259.2290957624</v>
+        <v>116208.1984335772</v>
       </c>
       <c r="G6" t="n">
-        <v>145996.685487058</v>
+        <v>145945.6548248738</v>
       </c>
       <c r="H6" t="n">
-        <v>145996.685487058</v>
+        <v>145945.6548248738</v>
       </c>
       <c r="I6" t="n">
-        <v>145996.685487058</v>
+        <v>145945.6548248738</v>
       </c>
       <c r="J6" t="n">
-        <v>463.0155522415007</v>
+        <v>411.9848900571674</v>
       </c>
       <c r="K6" t="n">
-        <v>145996.685487058</v>
+        <v>145945.6548248738</v>
       </c>
       <c r="L6" t="n">
-        <v>145996.685487058</v>
+        <v>145945.6548248738</v>
       </c>
       <c r="M6" t="n">
-        <v>-8203.239650719945</v>
+        <v>-8254.270312903318</v>
       </c>
       <c r="N6" t="n">
-        <v>120576.6329209702</v>
+        <v>120525.6022587852</v>
       </c>
       <c r="O6" t="n">
-        <v>145996.6854870581</v>
+        <v>145945.6548248737</v>
       </c>
       <c r="P6" t="n">
-        <v>145996.6854870581</v>
+        <v>145945.6548248738</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1174.997676913036</v>
+        <v>1174.997676913033</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -26819,7 +26819,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.7698637974424</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="F4" t="n">
-        <v>103.7862406598202</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974427</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598202</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974424</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598202</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L2" t="n">
-        <v>510.5455990486532</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>444.605878150503</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>144.279479031587</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>245.6677613624791</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>428.8508328537066</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>136.5411392401578</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>452.1971664929785</v>
       </c>
       <c r="N12" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>690.79220689259</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.207037443577633</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.506548990083218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.6936802674302</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>324.5260868755238</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>485.8622255806804</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>595.2046518540826</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>654.0493568580273</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>914.3737911969831</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
@@ -36916,13 +36916,13 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>385.7971050416143</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>385.2564605346091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>443.269859483506</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.528647712047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>83.23994392538584</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
